--- a/Scheme/ВЕКТОР_ТАБЛИЦА.xlsx
+++ b/Scheme/ВЕКТОР_ТАБЛИЦА.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="570" windowWidth="18870" windowHeight="6570"/>
+    <workbookView xWindow="492" yWindow="576" windowWidth="18876" windowHeight="6576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1568,47 +1568,47 @@
   </sheetPr>
   <dimension ref="A1:IF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
-      <selection activeCell="AG27" sqref="AG27"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AT14" sqref="AT14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="19" max="19" width="19.28515625" customWidth="1"/>
-    <col min="39" max="39" width="14.28515625" customWidth="1"/>
-    <col min="41" max="41" width="16.42578125" customWidth="1"/>
-    <col min="53" max="53" width="42.5703125" customWidth="1"/>
-    <col min="55" max="55" width="43.28515625" customWidth="1"/>
-    <col min="57" max="57" width="38.85546875" customWidth="1"/>
-    <col min="59" max="59" width="46.85546875" customWidth="1"/>
-    <col min="105" max="105" width="36.42578125" customWidth="1"/>
-    <col min="111" max="111" width="17.140625" customWidth="1"/>
-    <col min="117" max="117" width="26.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" customWidth="1"/>
+    <col min="39" max="39" width="14.33203125" customWidth="1"/>
+    <col min="41" max="41" width="16.44140625" customWidth="1"/>
+    <col min="53" max="53" width="42.5546875" customWidth="1"/>
+    <col min="55" max="55" width="43.33203125" customWidth="1"/>
+    <col min="57" max="57" width="38.88671875" customWidth="1"/>
+    <col min="59" max="59" width="46.88671875" customWidth="1"/>
+    <col min="105" max="105" width="36.44140625" customWidth="1"/>
+    <col min="111" max="111" width="17.109375" customWidth="1"/>
+    <col min="117" max="117" width="26.6640625" customWidth="1"/>
     <col min="125" max="125" width="55" customWidth="1"/>
-    <col min="127" max="127" width="41.140625" customWidth="1"/>
-    <col min="135" max="135" width="43.42578125" customWidth="1"/>
-    <col min="137" max="137" width="49.28515625" customWidth="1"/>
-    <col min="141" max="141" width="61.42578125" customWidth="1"/>
+    <col min="127" max="127" width="41.109375" customWidth="1"/>
+    <col min="135" max="135" width="43.44140625" customWidth="1"/>
+    <col min="137" max="137" width="49.33203125" customWidth="1"/>
+    <col min="141" max="141" width="61.44140625" customWidth="1"/>
     <col min="143" max="143" width="47" customWidth="1"/>
-    <col min="145" max="145" width="47.5703125" customWidth="1"/>
-    <col min="147" max="147" width="17.7109375" customWidth="1"/>
+    <col min="145" max="145" width="47.5546875" customWidth="1"/>
+    <col min="147" max="147" width="17.6640625" customWidth="1"/>
     <col min="151" max="151" width="18" customWidth="1"/>
-    <col min="159" max="159" width="12.85546875" customWidth="1"/>
-    <col min="160" max="160" width="12.28515625" customWidth="1"/>
-    <col min="169" max="169" width="41.5703125" customWidth="1"/>
-    <col min="171" max="171" width="33.140625" customWidth="1"/>
-    <col min="173" max="173" width="45.5703125" customWidth="1"/>
-    <col min="175" max="175" width="25.5703125" customWidth="1"/>
-    <col min="179" max="179" width="29.5703125" customWidth="1"/>
+    <col min="159" max="159" width="12.88671875" customWidth="1"/>
+    <col min="160" max="160" width="12.33203125" customWidth="1"/>
+    <col min="169" max="169" width="41.5546875" customWidth="1"/>
+    <col min="171" max="171" width="33.109375" customWidth="1"/>
+    <col min="173" max="173" width="45.5546875" customWidth="1"/>
+    <col min="175" max="175" width="25.5546875" customWidth="1"/>
+    <col min="179" max="179" width="29.5546875" customWidth="1"/>
     <col min="187" max="187" width="33" customWidth="1"/>
-    <col min="189" max="189" width="34.28515625" customWidth="1"/>
-    <col min="213" max="213" width="42.28515625" customWidth="1"/>
-    <col min="214" max="214" width="13.140625" customWidth="1"/>
-    <col min="217" max="217" width="18.5703125" customWidth="1"/>
-    <col min="218" max="218" width="9.7109375" customWidth="1"/>
+    <col min="189" max="189" width="34.33203125" customWidth="1"/>
+    <col min="213" max="213" width="42.33203125" customWidth="1"/>
+    <col min="214" max="214" width="13.109375" customWidth="1"/>
+    <col min="217" max="217" width="18.5546875" customWidth="1"/>
+    <col min="218" max="218" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:240" ht="15">
+    <row r="1" spans="1:240" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7451,11 +7451,11 @@
       <c r="AP9" s="4">
         <v>1</v>
       </c>
-      <c r="AQ9" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="AR9" s="3" t="s">
-        <v>355</v>
+      <c r="AQ9" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="AR9" s="5">
+        <v>1</v>
       </c>
       <c r="AS9" s="6" t="s">
         <v>356</v>
@@ -8173,11 +8173,11 @@
       <c r="AP10" s="5">
         <v>1</v>
       </c>
-      <c r="AQ10" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="AR10" s="5">
-        <v>1</v>
+      <c r="AQ10" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="AR10" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="AS10" s="3" t="s">
         <v>355</v>

--- a/Scheme/ВЕКТОР_ТАБЛИЦА.xlsx
+++ b/Scheme/ВЕКТОР_ТАБЛИЦА.xlsx
@@ -1568,8 +1568,8 @@
   </sheetPr>
   <dimension ref="A1:IF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AT14" sqref="AT14"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AS14" sqref="AS14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>

--- a/Scheme/ВЕКТОР_ТАБЛИЦА.xlsx
+++ b/Scheme/ВЕКТОР_ТАБЛИЦА.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3974" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3995" uniqueCount="371">
   <si>
     <t>1-C-1</t>
   </si>
@@ -1568,8 +1568,8 @@
   </sheetPr>
   <dimension ref="A1:IF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AS14" sqref="AS14"/>
+    <sheetView tabSelected="1" topLeftCell="CL1" workbookViewId="0">
+      <selection activeCell="CQ5" sqref="CQ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1582,8 +1582,14 @@
     <col min="57" max="57" width="38.88671875" customWidth="1"/>
     <col min="59" max="59" width="46.88671875" customWidth="1"/>
     <col min="105" max="105" width="36.44140625" customWidth="1"/>
-    <col min="111" max="111" width="17.109375" customWidth="1"/>
-    <col min="117" max="117" width="26.6640625" customWidth="1"/>
+    <col min="109" max="109" width="20.88671875" customWidth="1"/>
+    <col min="111" max="111" width="37.33203125" customWidth="1"/>
+    <col min="113" max="113" width="36.88671875" customWidth="1"/>
+    <col min="115" max="115" width="37" customWidth="1"/>
+    <col min="117" max="117" width="37.109375" customWidth="1"/>
+    <col min="119" max="119" width="35.88671875" customWidth="1"/>
+    <col min="121" max="121" width="45.44140625" customWidth="1"/>
+    <col min="123" max="123" width="51.33203125" customWidth="1"/>
     <col min="125" max="125" width="55" customWidth="1"/>
     <col min="127" max="127" width="41.109375" customWidth="1"/>
     <col min="135" max="135" width="43.44140625" customWidth="1"/>
@@ -4109,7 +4115,7 @@
         <v>299</v>
       </c>
       <c r="DH4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DI4" s="3" t="s">
         <v>276</v>
@@ -4291,20 +4297,48 @@
       <c r="FP4" s="4">
         <v>1</v>
       </c>
-      <c r="FQ4" s="6"/>
-      <c r="FR4" s="4"/>
-      <c r="FS4" s="6"/>
-      <c r="FT4" s="4"/>
-      <c r="FU4" s="6"/>
-      <c r="FV4" s="4"/>
-      <c r="FW4" s="6"/>
-      <c r="FX4" s="4"/>
-      <c r="FY4" s="6"/>
-      <c r="FZ4" s="4"/>
-      <c r="GA4" s="6"/>
-      <c r="GB4" s="4"/>
-      <c r="GC4" s="6"/>
-      <c r="GD4" s="4"/>
+      <c r="FQ4" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="FR4" s="4">
+        <v>1</v>
+      </c>
+      <c r="FS4" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="FT4" s="4">
+        <v>1</v>
+      </c>
+      <c r="FU4" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="FV4" s="4">
+        <v>1</v>
+      </c>
+      <c r="FW4" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="FX4" s="4">
+        <v>1</v>
+      </c>
+      <c r="FY4" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="FZ4" s="4">
+        <v>1</v>
+      </c>
+      <c r="GA4" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="GB4" s="4">
+        <v>1</v>
+      </c>
+      <c r="GC4" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="GD4" s="4">
+        <v>1</v>
+      </c>
       <c r="GE4" s="6" t="s">
         <v>304</v>
       </c>
@@ -4803,7 +4837,7 @@
         <v>322</v>
       </c>
       <c r="DH5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DI5" s="6" t="s">
         <v>299</v>
@@ -4978,46 +5012,46 @@
         <v>2</v>
       </c>
       <c r="FQ5" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="FR5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FS5" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="FT5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FU5" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="FV5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FW5" s="6" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="FX5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FY5" s="6" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="FZ5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GA5" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="GB5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GC5" s="6" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="GD5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GE5" s="6" t="s">
         <v>309</v>
@@ -5501,40 +5535,40 @@
         <v>313</v>
       </c>
       <c r="DH6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DI6" s="3" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="DJ6" s="4">
         <v>1</v>
       </c>
       <c r="DK6" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="DL6" s="4">
         <v>1</v>
       </c>
       <c r="DM6" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="DN6" s="4">
         <v>1</v>
       </c>
       <c r="DO6" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="DP6" s="4">
         <v>1</v>
       </c>
       <c r="DQ6" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="DR6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DS6" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="DT6" s="4">
         <v>1</v>
@@ -5675,47 +5709,47 @@
       <c r="FP6" s="4">
         <v>4</v>
       </c>
-      <c r="FQ6" s="6" t="s">
-        <v>306</v>
+      <c r="FQ6" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="FR6" s="4">
-        <v>2</v>
-      </c>
-      <c r="FS6" s="6" t="s">
-        <v>306</v>
+        <v>4</v>
+      </c>
+      <c r="FS6" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="FT6" s="4">
-        <v>2</v>
-      </c>
-      <c r="FU6" s="6" t="s">
-        <v>306</v>
+        <v>4</v>
+      </c>
+      <c r="FU6" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="FV6" s="4">
-        <v>2</v>
-      </c>
-      <c r="FW6" s="6" t="s">
-        <v>307</v>
+        <v>4</v>
+      </c>
+      <c r="FW6" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="FX6" s="4">
-        <v>2</v>
-      </c>
-      <c r="FY6" s="6" t="s">
-        <v>307</v>
+        <v>4</v>
+      </c>
+      <c r="FY6" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="FZ6" s="4">
-        <v>2</v>
-      </c>
-      <c r="GA6" s="6" t="s">
-        <v>307</v>
+        <v>4</v>
+      </c>
+      <c r="GA6" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="GB6" s="4">
-        <v>2</v>
-      </c>
-      <c r="GC6" s="6" t="s">
-        <v>308</v>
+        <v>4</v>
+      </c>
+      <c r="GC6" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="GD6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="GE6" s="3" t="s">
         <v>330</v>
@@ -6218,46 +6252,46 @@
         <v>4</v>
       </c>
       <c r="DI7" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="DJ7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DK7" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="DL7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DM7" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="DN7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DO7" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="DP7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DQ7" s="3" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="DR7" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="DS7" s="3" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="DT7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DU7" s="3" t="s">
         <v>327</v>
       </c>
       <c r="DV7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DW7" s="3" t="s">
         <v>332</v>
@@ -6398,46 +6432,46 @@
         <v>1</v>
       </c>
       <c r="FQ7" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="FR7" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="FS7" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="FT7" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="FU7" s="3" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="FV7" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="FW7" s="3" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="FX7" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="FY7" s="3" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="FZ7" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="GA7" s="3" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="GB7" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="GC7" s="3" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="GD7" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="GE7" s="3" t="s">
         <v>336</v>
@@ -6940,40 +6974,40 @@
         <v>1</v>
       </c>
       <c r="DI8" s="3" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="DJ8" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DK8" s="3" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="DL8" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DM8" s="3" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="DN8" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DO8" s="3" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="DP8" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DQ8" s="3" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="DR8" s="4">
         <v>1</v>
       </c>
       <c r="DS8" s="3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="DT8" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DU8" s="3" t="s">
         <v>331</v>
@@ -7119,46 +7153,46 @@
       <c r="FP8" s="4">
         <v>1</v>
       </c>
-      <c r="FQ8" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="FR8" s="4">
-        <v>1</v>
-      </c>
-      <c r="FS8" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="FT8" s="4">
-        <v>1</v>
-      </c>
-      <c r="FU8" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="FV8" s="4">
-        <v>1</v>
-      </c>
-      <c r="FW8" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="FX8" s="4">
-        <v>1</v>
-      </c>
-      <c r="FY8" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="FZ8" s="4">
-        <v>1</v>
-      </c>
-      <c r="GA8" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="GB8" s="4">
-        <v>1</v>
-      </c>
-      <c r="GC8" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="GD8" s="4">
+      <c r="FQ8" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="FR8" s="5">
+        <v>1</v>
+      </c>
+      <c r="FS8" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="FT8" s="5">
+        <v>1</v>
+      </c>
+      <c r="FU8" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="FV8" s="5">
+        <v>1</v>
+      </c>
+      <c r="FW8" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="FX8" s="5">
+        <v>1</v>
+      </c>
+      <c r="FY8" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="FZ8" s="5">
+        <v>1</v>
+      </c>
+      <c r="GA8" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="GB8" s="5">
+        <v>1</v>
+      </c>
+      <c r="GC8" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="GD8" s="5">
         <v>1</v>
       </c>
       <c r="GE8" s="6" t="s">
@@ -7451,11 +7485,11 @@
       <c r="AP9" s="4">
         <v>1</v>
       </c>
-      <c r="AQ9" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="AR9" s="5">
-        <v>1</v>
+      <c r="AQ9" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="AR9" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="AS9" s="6" t="s">
         <v>356</v>
@@ -7662,40 +7696,40 @@
         <v>1</v>
       </c>
       <c r="DI9" s="3" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="DJ9" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DK9" s="3" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="DL9" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DM9" s="3" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="DN9" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DO9" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="DP9" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DQ9" s="3" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="DR9" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DS9" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="DT9" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DU9" s="3" t="s">
         <v>345</v>
@@ -7841,47 +7875,47 @@
       <c r="FP9" s="5">
         <v>1</v>
       </c>
-      <c r="FQ9" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="FR9" s="5">
-        <v>1</v>
-      </c>
-      <c r="FS9" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="FT9" s="5">
-        <v>1</v>
-      </c>
-      <c r="FU9" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="FV9" s="5">
-        <v>1</v>
-      </c>
-      <c r="FW9" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="FX9" s="5">
-        <v>1</v>
-      </c>
-      <c r="FY9" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="FZ9" s="5">
-        <v>1</v>
-      </c>
-      <c r="GA9" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="GB9" s="5">
-        <v>1</v>
-      </c>
-      <c r="GC9" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="GD9" s="5">
-        <v>1</v>
+      <c r="FQ9" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="FR9" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="FS9" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="FT9" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="FU9" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="FV9" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="FW9" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="FX9" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="FY9" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="FZ9" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="GA9" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="GB9" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="GC9" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="GD9" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="GE9" s="3" t="s">
         <v>355</v>
@@ -8173,11 +8207,11 @@
       <c r="AP10" s="5">
         <v>1</v>
       </c>
-      <c r="AQ10" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="AR10" s="3" t="s">
-        <v>355</v>
+      <c r="AQ10" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="AR10" s="5">
+        <v>1</v>
       </c>
       <c r="AS10" s="3" t="s">
         <v>355</v>
@@ -8384,37 +8418,37 @@
         <v>1</v>
       </c>
       <c r="DI10" s="3" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="DJ10" s="4">
         <v>1</v>
       </c>
       <c r="DK10" s="3" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="DL10" s="4">
         <v>1</v>
       </c>
       <c r="DM10" s="3" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="DN10" s="4">
         <v>1</v>
       </c>
       <c r="DO10" s="3" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="DP10" s="4">
         <v>1</v>
       </c>
-      <c r="DQ10" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="DR10" s="4">
+      <c r="DQ10" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="DR10" s="5">
         <v>1</v>
       </c>
       <c r="DS10" s="3" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="DT10" s="4">
         <v>1</v>
@@ -9105,40 +9139,40 @@
       <c r="DH11" s="5">
         <v>1</v>
       </c>
-      <c r="DI11" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="DJ11" s="4">
-        <v>1</v>
-      </c>
-      <c r="DK11" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="DL11" s="4">
-        <v>1</v>
-      </c>
-      <c r="DM11" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="DN11" s="4">
-        <v>1</v>
-      </c>
-      <c r="DO11" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="DP11" s="4">
-        <v>1</v>
-      </c>
-      <c r="DQ11" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="DR11" s="4">
-        <v>1</v>
-      </c>
-      <c r="DS11" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="DT11" s="4">
+      <c r="DI11" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="DJ11" s="5">
+        <v>1</v>
+      </c>
+      <c r="DK11" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="DL11" s="5">
+        <v>1</v>
+      </c>
+      <c r="DM11" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="DN11" s="5">
+        <v>1</v>
+      </c>
+      <c r="DO11" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="DP11" s="5">
+        <v>1</v>
+      </c>
+      <c r="DQ11" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="DR11" s="5">
+        <v>1</v>
+      </c>
+      <c r="DS11" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="DT11" s="5">
         <v>1</v>
       </c>
       <c r="DU11" s="6" t="s">
@@ -9828,37 +9862,37 @@
         <v>1</v>
       </c>
       <c r="DI12" s="6" t="s">
-        <v>249</v>
+        <v>349</v>
       </c>
       <c r="DJ12" s="5">
         <v>1</v>
       </c>
       <c r="DK12" s="6" t="s">
-        <v>240</v>
+        <v>356</v>
       </c>
       <c r="DL12" s="5">
         <v>1</v>
       </c>
       <c r="DM12" s="6" t="s">
-        <v>241</v>
+        <v>351</v>
       </c>
       <c r="DN12" s="5">
         <v>1</v>
       </c>
       <c r="DO12" s="6" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="DP12" s="5">
         <v>1</v>
       </c>
-      <c r="DQ12" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="DR12" s="5">
-        <v>1</v>
+      <c r="DQ12" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="DR12" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="DS12" s="6" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="DT12" s="5">
         <v>1</v>
@@ -10549,41 +10583,41 @@
       <c r="DH13" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="DI13" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="DJ13" s="5">
-        <v>1</v>
-      </c>
-      <c r="DK13" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="DL13" s="5">
-        <v>1</v>
-      </c>
-      <c r="DM13" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="DN13" s="5">
-        <v>1</v>
-      </c>
-      <c r="DO13" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="DP13" s="5">
-        <v>1</v>
-      </c>
-      <c r="DQ13" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="DR13" s="5">
-        <v>1</v>
-      </c>
-      <c r="DS13" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="DT13" s="5">
-        <v>1</v>
+      <c r="DI13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="DJ13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="DK13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="DL13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="DM13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="DN13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="DO13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="DP13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="DQ13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="DR13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="DS13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="DT13" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="DU13" s="3" t="s">
         <v>355</v>

--- a/Scheme/ВЕКТОР_ТАБЛИЦА.xlsx
+++ b/Scheme/ВЕКТОР_ТАБЛИЦА.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3995" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3978" uniqueCount="372">
   <si>
     <t>1-C-1</t>
   </si>
@@ -1128,6 +1128,9 @@
   </si>
   <si>
     <t>Насос FPS 25/8-180G</t>
+  </si>
+  <si>
+    <t>Кран шаровой латунный G1 1/2 В-В.Р арт. VF.214.LR1.200</t>
   </si>
 </sst>
 </file>
@@ -1568,8 +1571,8 @@
   </sheetPr>
   <dimension ref="A1:IF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CL1" workbookViewId="0">
-      <selection activeCell="CQ5" sqref="CQ5"/>
+    <sheetView tabSelected="1" topLeftCell="BN1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BU17" sqref="BU17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1577,6 +1580,7 @@
     <col min="19" max="19" width="19.33203125" customWidth="1"/>
     <col min="39" max="39" width="14.33203125" customWidth="1"/>
     <col min="41" max="41" width="16.44140625" customWidth="1"/>
+    <col min="51" max="51" width="43.33203125" customWidth="1"/>
     <col min="53" max="53" width="42.5546875" customWidth="1"/>
     <col min="55" max="55" width="43.33203125" customWidth="1"/>
     <col min="57" max="57" width="38.88671875" customWidth="1"/>
@@ -4297,48 +4301,20 @@
       <c r="FP4" s="4">
         <v>1</v>
       </c>
-      <c r="FQ4" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="FR4" s="4">
-        <v>1</v>
-      </c>
-      <c r="FS4" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="FT4" s="4">
-        <v>1</v>
-      </c>
-      <c r="FU4" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="FV4" s="4">
-        <v>1</v>
-      </c>
-      <c r="FW4" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="FX4" s="4">
-        <v>1</v>
-      </c>
-      <c r="FY4" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="FZ4" s="4">
-        <v>1</v>
-      </c>
-      <c r="GA4" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="GB4" s="4">
-        <v>1</v>
-      </c>
-      <c r="GC4" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="GD4" s="4">
-        <v>1</v>
-      </c>
+      <c r="FQ4" s="6"/>
+      <c r="FR4" s="4"/>
+      <c r="FS4" s="6"/>
+      <c r="FT4" s="4"/>
+      <c r="FU4" s="6"/>
+      <c r="FV4" s="4"/>
+      <c r="FW4" s="6"/>
+      <c r="FX4" s="4"/>
+      <c r="FY4" s="6"/>
+      <c r="FZ4" s="4"/>
+      <c r="GA4" s="6"/>
+      <c r="GB4" s="4"/>
+      <c r="GC4" s="6"/>
+      <c r="GD4" s="4"/>
       <c r="GE4" s="6" t="s">
         <v>304</v>
       </c>
@@ -4660,28 +4636,28 @@
         <v>2</v>
       </c>
       <c r="BA5" s="6" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="BB5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC5" s="6" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="BD5" s="4">
-        <v>1</v>
-      </c>
-      <c r="BE5" s="6" t="s">
-        <v>308</v>
+        <v>2</v>
+      </c>
+      <c r="BE5" s="9" t="s">
+        <v>371</v>
       </c>
       <c r="BF5" s="4">
-        <v>1</v>
-      </c>
-      <c r="BG5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG5" s="9" t="s">
         <v>309</v>
       </c>
       <c r="BH5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI5" s="6" t="s">
         <v>299</v>
@@ -5012,46 +4988,46 @@
         <v>2</v>
       </c>
       <c r="FQ5" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="FR5" s="4">
+        <v>1</v>
+      </c>
+      <c r="FS5" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="FT5" s="4">
+        <v>1</v>
+      </c>
+      <c r="FU5" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="FV5" s="4">
+        <v>1</v>
+      </c>
+      <c r="FW5" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="FX5" s="4">
+        <v>1</v>
+      </c>
+      <c r="FY5" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="FZ5" s="4">
+        <v>1</v>
+      </c>
+      <c r="GA5" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="FR5" s="4">
-        <v>2</v>
-      </c>
-      <c r="FS5" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="FT5" s="4">
-        <v>2</v>
-      </c>
-      <c r="FU5" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="FV5" s="4">
-        <v>2</v>
-      </c>
-      <c r="FW5" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="FX5" s="4">
-        <v>2</v>
-      </c>
-      <c r="FY5" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="FZ5" s="4">
-        <v>2</v>
-      </c>
-      <c r="GA5" s="6" t="s">
-        <v>307</v>
-      </c>
       <c r="GB5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GC5" s="6" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="GD5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GE5" s="6" t="s">
         <v>309</v>
@@ -5373,14 +5349,30 @@
       <c r="AZ6" s="4">
         <v>3</v>
       </c>
-      <c r="BA6" s="19"/>
-      <c r="BB6" s="20"/>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="20"/>
-      <c r="BE6" s="19"/>
-      <c r="BF6" s="20"/>
-      <c r="BG6" s="19"/>
-      <c r="BH6" s="20"/>
+      <c r="BA6" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="BB6" s="4">
+        <v>3</v>
+      </c>
+      <c r="BC6" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="BD6" s="4">
+        <v>3</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="BF6" s="4">
+        <v>3</v>
+      </c>
+      <c r="BG6" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="BH6" s="4">
+        <v>3</v>
+      </c>
       <c r="BI6" s="3" t="s">
         <v>311</v>
       </c>
@@ -5537,42 +5529,22 @@
       <c r="DH6" s="4">
         <v>2</v>
       </c>
-      <c r="DI6" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="DJ6" s="4">
-        <v>1</v>
-      </c>
-      <c r="DK6" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="DL6" s="4">
-        <v>1</v>
-      </c>
-      <c r="DM6" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="DN6" s="4">
-        <v>1</v>
-      </c>
-      <c r="DO6" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="DP6" s="4">
-        <v>1</v>
-      </c>
+      <c r="DI6" s="3"/>
+      <c r="DJ6" s="4"/>
+      <c r="DK6" s="3"/>
+      <c r="DL6" s="4"/>
+      <c r="DM6" s="3"/>
+      <c r="DN6" s="4"/>
+      <c r="DO6" s="3"/>
+      <c r="DP6" s="4"/>
       <c r="DQ6" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="DR6" s="4">
-        <v>1</v>
-      </c>
-      <c r="DS6" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="DT6" s="4">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="DS6" s="3"/>
+      <c r="DT6" s="4"/>
       <c r="DU6" s="3" t="s">
         <v>323</v>
       </c>
@@ -5709,47 +5681,47 @@
       <c r="FP6" s="4">
         <v>4</v>
       </c>
-      <c r="FQ6" s="3" t="s">
-        <v>328</v>
+      <c r="FQ6" s="6" t="s">
+        <v>306</v>
       </c>
       <c r="FR6" s="4">
-        <v>4</v>
-      </c>
-      <c r="FS6" s="3" t="s">
-        <v>328</v>
+        <v>2</v>
+      </c>
+      <c r="FS6" s="6" t="s">
+        <v>306</v>
       </c>
       <c r="FT6" s="4">
-        <v>4</v>
-      </c>
-      <c r="FU6" s="3" t="s">
-        <v>328</v>
+        <v>2</v>
+      </c>
+      <c r="FU6" s="6" t="s">
+        <v>306</v>
       </c>
       <c r="FV6" s="4">
-        <v>4</v>
-      </c>
-      <c r="FW6" s="3" t="s">
-        <v>328</v>
+        <v>2</v>
+      </c>
+      <c r="FW6" s="6" t="s">
+        <v>307</v>
       </c>
       <c r="FX6" s="4">
-        <v>4</v>
-      </c>
-      <c r="FY6" s="3" t="s">
-        <v>328</v>
+        <v>2</v>
+      </c>
+      <c r="FY6" s="6" t="s">
+        <v>307</v>
       </c>
       <c r="FZ6" s="4">
-        <v>4</v>
-      </c>
-      <c r="GA6" s="3" t="s">
-        <v>328</v>
+        <v>2</v>
+      </c>
+      <c r="GA6" s="6" t="s">
+        <v>307</v>
       </c>
       <c r="GB6" s="4">
-        <v>4</v>
-      </c>
-      <c r="GC6" s="3" t="s">
-        <v>328</v>
+        <v>2</v>
+      </c>
+      <c r="GC6" s="6" t="s">
+        <v>308</v>
       </c>
       <c r="GD6" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="GE6" s="3" t="s">
         <v>330</v>
@@ -6071,29 +6043,29 @@
       <c r="AZ7" s="4">
         <v>1</v>
       </c>
-      <c r="BA7" s="6" t="s">
-        <v>307</v>
+      <c r="BA7" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="BB7" s="4">
-        <v>2</v>
-      </c>
-      <c r="BC7" s="6" t="s">
-        <v>307</v>
+        <v>1</v>
+      </c>
+      <c r="BC7" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="BD7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="3" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="BF7" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="3" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="BH7" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BI7" s="3" t="s">
         <v>337</v>
@@ -6252,40 +6224,36 @@
         <v>4</v>
       </c>
       <c r="DI7" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="DJ7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DK7" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="DL7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DM7" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="DJ7" s="4">
-        <v>2</v>
-      </c>
-      <c r="DK7" s="3" t="s">
+      <c r="DN7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DO7" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="DL7" s="4">
-        <v>2</v>
-      </c>
-      <c r="DM7" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="DN7" s="4">
-        <v>2</v>
-      </c>
-      <c r="DO7" s="3" t="s">
+      <c r="DP7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DQ7" s="3"/>
+      <c r="DR7" s="4"/>
+      <c r="DS7" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="DP7" s="4">
-        <v>2</v>
-      </c>
-      <c r="DQ7" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="DR7" s="4">
-        <v>4</v>
-      </c>
-      <c r="DS7" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="DT7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DU7" s="3" t="s">
         <v>327</v>
@@ -6432,46 +6400,46 @@
         <v>1</v>
       </c>
       <c r="FQ7" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="FR7" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="FS7" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="FT7" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="FU7" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="FV7" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="FW7" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="FX7" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="FY7" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="FZ7" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="GA7" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="GB7" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="GC7" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="GD7" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="GE7" s="3" t="s">
         <v>336</v>
@@ -6793,28 +6761,28 @@
       <c r="AZ8" s="5">
         <v>1</v>
       </c>
-      <c r="BA8" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="BB8" s="4">
-        <v>3</v>
-      </c>
-      <c r="BC8" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="BD8" s="4">
-        <v>3</v>
-      </c>
-      <c r="BE8" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="BF8" s="4">
-        <v>1</v>
-      </c>
-      <c r="BG8" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="BH8" s="4">
+      <c r="BA8" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="BB8" s="5">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="BD8" s="5">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="BF8" s="5">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="BH8" s="5">
         <v>1</v>
       </c>
       <c r="BI8" s="3" t="s">
@@ -6974,40 +6942,40 @@
         <v>1</v>
       </c>
       <c r="DI8" s="3" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="DJ8" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="DK8" s="3" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="DL8" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="DM8" s="3" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="DN8" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="DO8" s="3" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="DP8" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="DQ8" s="3" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="DR8" s="4">
         <v>1</v>
       </c>
       <c r="DS8" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="DT8" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="DU8" s="3" t="s">
         <v>331</v>
@@ -7153,46 +7121,46 @@
       <c r="FP8" s="4">
         <v>1</v>
       </c>
-      <c r="FQ8" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="FR8" s="5">
-        <v>1</v>
-      </c>
-      <c r="FS8" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="FT8" s="5">
-        <v>1</v>
-      </c>
-      <c r="FU8" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="FV8" s="5">
-        <v>1</v>
-      </c>
-      <c r="FW8" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="FX8" s="5">
-        <v>1</v>
-      </c>
-      <c r="FY8" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="FZ8" s="5">
-        <v>1</v>
-      </c>
-      <c r="GA8" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="GB8" s="5">
-        <v>1</v>
-      </c>
-      <c r="GC8" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="GD8" s="5">
+      <c r="FQ8" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="FR8" s="4">
+        <v>1</v>
+      </c>
+      <c r="FS8" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="FT8" s="4">
+        <v>1</v>
+      </c>
+      <c r="FU8" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="FV8" s="4">
+        <v>1</v>
+      </c>
+      <c r="FW8" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="FX8" s="4">
+        <v>1</v>
+      </c>
+      <c r="FY8" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="FZ8" s="4">
+        <v>1</v>
+      </c>
+      <c r="GA8" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="GB8" s="4">
+        <v>1</v>
+      </c>
+      <c r="GC8" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="GD8" s="4">
         <v>1</v>
       </c>
       <c r="GE8" s="6" t="s">
@@ -7515,26 +7483,26 @@
       <c r="AZ9" s="5">
         <v>1</v>
       </c>
-      <c r="BA9" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="BB9" s="4">
-        <v>1</v>
-      </c>
-      <c r="BC9" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="BD9" s="4">
+      <c r="BA9" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="BB9" s="5">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="BD9" s="5">
         <v>1</v>
       </c>
       <c r="BE9" s="6" t="s">
-        <v>241</v>
+        <v>350</v>
       </c>
       <c r="BF9" s="5">
         <v>1</v>
       </c>
       <c r="BG9" s="6" t="s">
-        <v>241</v>
+        <v>351</v>
       </c>
       <c r="BH9" s="5">
         <v>1</v>
@@ -7696,40 +7664,40 @@
         <v>1</v>
       </c>
       <c r="DI9" s="3" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="DJ9" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="DK9" s="3" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="DL9" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="DM9" s="3" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="DN9" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="DO9" s="3" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="DP9" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="DQ9" s="3" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="DR9" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="DS9" s="3" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="DT9" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="DU9" s="3" t="s">
         <v>345</v>
@@ -7875,47 +7843,47 @@
       <c r="FP9" s="5">
         <v>1</v>
       </c>
-      <c r="FQ9" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="FR9" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="FS9" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="FT9" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="FU9" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="FV9" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="FW9" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="FX9" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="FY9" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="FZ9" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="GA9" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="GB9" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="GC9" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="GD9" s="3" t="s">
-        <v>355</v>
+      <c r="FQ9" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="FR9" s="5">
+        <v>1</v>
+      </c>
+      <c r="FS9" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="FT9" s="5">
+        <v>1</v>
+      </c>
+      <c r="FU9" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="FV9" s="5">
+        <v>1</v>
+      </c>
+      <c r="FW9" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="FX9" s="5">
+        <v>1</v>
+      </c>
+      <c r="FY9" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="FZ9" s="5">
+        <v>1</v>
+      </c>
+      <c r="GA9" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="GB9" s="5">
+        <v>1</v>
+      </c>
+      <c r="GC9" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="GD9" s="5">
+        <v>1</v>
       </c>
       <c r="GE9" s="3" t="s">
         <v>355</v>
@@ -8237,29 +8205,29 @@
       <c r="AZ10" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="BA10" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="BB10" s="5">
-        <v>1</v>
-      </c>
-      <c r="BC10" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="BD10" s="5">
-        <v>1</v>
-      </c>
-      <c r="BE10" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="BF10" s="5">
-        <v>1</v>
-      </c>
-      <c r="BG10" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="BH10" s="5">
-        <v>1</v>
+      <c r="BA10" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="BB10" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="BC10" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="BD10" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="BE10" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="BF10" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="BG10" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="BH10" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="BI10" s="3" t="s">
         <v>355</v>
@@ -8418,37 +8386,37 @@
         <v>1</v>
       </c>
       <c r="DI10" s="3" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="DJ10" s="4">
         <v>1</v>
       </c>
       <c r="DK10" s="3" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="DL10" s="4">
         <v>1</v>
       </c>
       <c r="DM10" s="3" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="DN10" s="4">
         <v>1</v>
       </c>
       <c r="DO10" s="3" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="DP10" s="4">
         <v>1</v>
       </c>
-      <c r="DQ10" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="DR10" s="5">
+      <c r="DQ10" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="DR10" s="4">
         <v>1</v>
       </c>
       <c r="DS10" s="3" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="DT10" s="4">
         <v>1</v>
@@ -8959,17 +8927,17 @@
       <c r="AZ11" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="BA11" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="BB11" s="5">
-        <v>1</v>
-      </c>
-      <c r="BC11" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="BD11" s="5">
-        <v>1</v>
+      <c r="BA11" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="BB11" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="BC11" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="BD11" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="BE11" s="3" t="s">
         <v>355</v>
@@ -9139,40 +9107,40 @@
       <c r="DH11" s="5">
         <v>1</v>
       </c>
-      <c r="DI11" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="DJ11" s="5">
-        <v>1</v>
-      </c>
-      <c r="DK11" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="DL11" s="5">
-        <v>1</v>
-      </c>
-      <c r="DM11" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="DN11" s="5">
-        <v>1</v>
-      </c>
-      <c r="DO11" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="DP11" s="5">
-        <v>1</v>
-      </c>
-      <c r="DQ11" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="DR11" s="5">
-        <v>1</v>
-      </c>
-      <c r="DS11" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="DT11" s="5">
+      <c r="DI11" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="DJ11" s="4">
+        <v>1</v>
+      </c>
+      <c r="DK11" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="DL11" s="4">
+        <v>1</v>
+      </c>
+      <c r="DM11" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="DN11" s="4">
+        <v>1</v>
+      </c>
+      <c r="DO11" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="DP11" s="4">
+        <v>1</v>
+      </c>
+      <c r="DQ11" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="DR11" s="4">
+        <v>1</v>
+      </c>
+      <c r="DS11" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="DT11" s="4">
         <v>1</v>
       </c>
       <c r="DU11" s="6" t="s">
@@ -9862,37 +9830,37 @@
         <v>1</v>
       </c>
       <c r="DI12" s="6" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="DJ12" s="5">
         <v>1</v>
       </c>
       <c r="DK12" s="6" t="s">
-        <v>356</v>
+        <v>240</v>
       </c>
       <c r="DL12" s="5">
         <v>1</v>
       </c>
       <c r="DM12" s="6" t="s">
-        <v>351</v>
+        <v>241</v>
       </c>
       <c r="DN12" s="5">
         <v>1</v>
       </c>
       <c r="DO12" s="6" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="DP12" s="5">
         <v>1</v>
       </c>
-      <c r="DQ12" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="DR12" s="3" t="s">
-        <v>355</v>
+      <c r="DQ12" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="DR12" s="5">
+        <v>1</v>
       </c>
       <c r="DS12" s="6" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="DT12" s="5">
         <v>1</v>
@@ -10583,41 +10551,41 @@
       <c r="DH13" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="DI13" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="DJ13" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="DK13" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="DL13" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="DM13" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="DN13" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="DO13" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="DP13" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="DQ13" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="DR13" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="DS13" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="DT13" s="3" t="s">
-        <v>355</v>
+      <c r="DI13" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="DJ13" s="5">
+        <v>1</v>
+      </c>
+      <c r="DK13" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="DL13" s="5">
+        <v>1</v>
+      </c>
+      <c r="DM13" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="DN13" s="5">
+        <v>1</v>
+      </c>
+      <c r="DO13" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="DP13" s="5">
+        <v>1</v>
+      </c>
+      <c r="DQ13" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="DR13" s="5">
+        <v>1</v>
+      </c>
+      <c r="DS13" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="DT13" s="5">
+        <v>1</v>
       </c>
       <c r="DU13" s="3" t="s">
         <v>355</v>

--- a/Scheme/ВЕКТОР_ТАБЛИЦА.xlsx
+++ b/Scheme/ВЕКТОР_ТАБЛИЦА.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasukov\Desktop\Васюков 24\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B934FA5A-F248-4897-A7AC-B01C97CC4ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="492" yWindow="576" windowWidth="18876" windowHeight="6576"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3978" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3978" uniqueCount="371">
   <si>
     <t>1-C-1</t>
   </si>
@@ -1119,9 +1136,6 @@
   </si>
   <si>
     <t>Клапан балансировочный Ду50</t>
-  </si>
-  <si>
-    <t>Клапан балансировочный Ду2</t>
   </si>
   <si>
     <t>Клапан балансировочный Ду40 Lмонт.-350</t>
@@ -1136,8 +1150,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1365,6 +1379,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1565,60 +1587,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:IF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BU17" sqref="BU17"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AM4" sqref="AM4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="19" max="19" width="19.33203125" customWidth="1"/>
-    <col min="39" max="39" width="14.33203125" customWidth="1"/>
-    <col min="41" max="41" width="16.44140625" customWidth="1"/>
-    <col min="51" max="51" width="43.33203125" customWidth="1"/>
-    <col min="53" max="53" width="42.5546875" customWidth="1"/>
-    <col min="55" max="55" width="43.33203125" customWidth="1"/>
-    <col min="57" max="57" width="38.88671875" customWidth="1"/>
-    <col min="59" max="59" width="46.88671875" customWidth="1"/>
-    <col min="105" max="105" width="36.44140625" customWidth="1"/>
-    <col min="109" max="109" width="20.88671875" customWidth="1"/>
-    <col min="111" max="111" width="37.33203125" customWidth="1"/>
-    <col min="113" max="113" width="36.88671875" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" customWidth="1"/>
+    <col min="31" max="31" width="37.7109375" customWidth="1"/>
+    <col min="33" max="33" width="35.28515625" customWidth="1"/>
+    <col min="35" max="35" width="34.42578125" customWidth="1"/>
+    <col min="39" max="39" width="14.28515625" customWidth="1"/>
+    <col min="41" max="41" width="16.42578125" customWidth="1"/>
+    <col min="51" max="51" width="43.28515625" customWidth="1"/>
+    <col min="53" max="53" width="42.5703125" customWidth="1"/>
+    <col min="55" max="55" width="43.28515625" customWidth="1"/>
+    <col min="57" max="57" width="38.85546875" customWidth="1"/>
+    <col min="59" max="59" width="46.85546875" customWidth="1"/>
+    <col min="105" max="105" width="36.42578125" customWidth="1"/>
+    <col min="109" max="109" width="20.85546875" customWidth="1"/>
+    <col min="111" max="111" width="37.28515625" customWidth="1"/>
+    <col min="113" max="113" width="36.85546875" customWidth="1"/>
     <col min="115" max="115" width="37" customWidth="1"/>
-    <col min="117" max="117" width="37.109375" customWidth="1"/>
-    <col min="119" max="119" width="35.88671875" customWidth="1"/>
-    <col min="121" max="121" width="45.44140625" customWidth="1"/>
-    <col min="123" max="123" width="51.33203125" customWidth="1"/>
+    <col min="117" max="117" width="37.140625" customWidth="1"/>
+    <col min="119" max="119" width="35.85546875" customWidth="1"/>
+    <col min="121" max="121" width="45.42578125" customWidth="1"/>
+    <col min="123" max="123" width="51.28515625" customWidth="1"/>
     <col min="125" max="125" width="55" customWidth="1"/>
-    <col min="127" max="127" width="41.109375" customWidth="1"/>
-    <col min="135" max="135" width="43.44140625" customWidth="1"/>
-    <col min="137" max="137" width="49.33203125" customWidth="1"/>
-    <col min="141" max="141" width="61.44140625" customWidth="1"/>
+    <col min="127" max="127" width="41.140625" customWidth="1"/>
+    <col min="135" max="135" width="43.42578125" customWidth="1"/>
+    <col min="137" max="137" width="49.28515625" customWidth="1"/>
+    <col min="141" max="141" width="61.42578125" customWidth="1"/>
     <col min="143" max="143" width="47" customWidth="1"/>
-    <col min="145" max="145" width="47.5546875" customWidth="1"/>
-    <col min="147" max="147" width="17.6640625" customWidth="1"/>
+    <col min="145" max="145" width="47.5703125" customWidth="1"/>
+    <col min="147" max="147" width="17.7109375" customWidth="1"/>
     <col min="151" max="151" width="18" customWidth="1"/>
-    <col min="159" max="159" width="12.88671875" customWidth="1"/>
-    <col min="160" max="160" width="12.33203125" customWidth="1"/>
-    <col min="169" max="169" width="41.5546875" customWidth="1"/>
-    <col min="171" max="171" width="33.109375" customWidth="1"/>
-    <col min="173" max="173" width="45.5546875" customWidth="1"/>
-    <col min="175" max="175" width="25.5546875" customWidth="1"/>
-    <col min="179" max="179" width="29.5546875" customWidth="1"/>
+    <col min="159" max="159" width="12.85546875" customWidth="1"/>
+    <col min="160" max="160" width="12.28515625" customWidth="1"/>
+    <col min="161" max="161" width="38.42578125" customWidth="1"/>
+    <col min="165" max="165" width="34.7109375" customWidth="1"/>
+    <col min="169" max="169" width="41.5703125" customWidth="1"/>
+    <col min="171" max="171" width="33.140625" customWidth="1"/>
+    <col min="173" max="173" width="45.5703125" customWidth="1"/>
+    <col min="175" max="175" width="25.5703125" customWidth="1"/>
+    <col min="179" max="179" width="29.5703125" customWidth="1"/>
     <col min="187" max="187" width="33" customWidth="1"/>
-    <col min="189" max="189" width="34.33203125" customWidth="1"/>
-    <col min="213" max="213" width="42.33203125" customWidth="1"/>
-    <col min="214" max="214" width="13.109375" customWidth="1"/>
-    <col min="217" max="217" width="18.5546875" customWidth="1"/>
-    <col min="218" max="218" width="9.6640625" customWidth="1"/>
+    <col min="189" max="189" width="34.28515625" customWidth="1"/>
+    <col min="213" max="213" width="42.28515625" customWidth="1"/>
+    <col min="214" max="214" width="13.140625" customWidth="1"/>
+    <col min="217" max="217" width="18.5703125" customWidth="1"/>
+    <col min="218" max="218" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:240" ht="14.4">
+    <row r="1" spans="1:240" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2340,7 +2367,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:240" ht="15.75" customHeight="1">
+    <row r="2" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>240</v>
       </c>
@@ -3062,7 +3089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:240" ht="15.75" customHeight="1">
+    <row r="3" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>264</v>
       </c>
@@ -3784,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:240" ht="15.75" customHeight="1">
+    <row r="4" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>299</v>
       </c>
@@ -4478,7 +4505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:240" ht="15.75" customHeight="1">
+    <row r="5" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>311</v>
       </c>
@@ -4648,7 +4675,7 @@
         <v>2</v>
       </c>
       <c r="BE5" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="BF5" s="4">
         <v>2</v>
@@ -5192,7 +5219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:240" ht="15.75" customHeight="1">
+    <row r="6" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>329</v>
       </c>
@@ -5284,13 +5311,13 @@
         <v>2</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>312</v>
+        <v>241</v>
       </c>
       <c r="AF6" s="4">
         <v>1</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>313</v>
+        <v>365</v>
       </c>
       <c r="AH6" s="4">
         <v>1</v>
@@ -5302,13 +5329,13 @@
         <v>2</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="AL6" s="4">
         <v>1</v>
       </c>
       <c r="AM6" s="3" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="AN6" s="4">
         <v>1</v>
@@ -5886,7 +5913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:240" ht="15.75" customHeight="1">
+    <row r="7" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>337</v>
       </c>
@@ -5990,7 +6017,7 @@
         <v>2</v>
       </c>
       <c r="AI7" s="3" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="AJ7" s="4">
         <v>1</v>
@@ -6526,19 +6553,19 @@
         <v>1</v>
       </c>
       <c r="HG7" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="HH7" s="5">
         <v>1</v>
       </c>
       <c r="HI7" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="HJ7" s="5">
         <v>1</v>
       </c>
       <c r="HK7" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="HL7" s="5">
         <v>1</v>
@@ -6604,7 +6631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:240" ht="15.75" customHeight="1">
+    <row r="8" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>353</v>
       </c>
@@ -7236,13 +7263,13 @@
         <v>1</v>
       </c>
       <c r="HC8" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="HD8" s="5">
         <v>1</v>
       </c>
       <c r="HE8" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="HF8" s="5">
         <v>1</v>
@@ -7326,7 +7353,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:240" ht="15.75" customHeight="1">
+    <row r="9" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>355</v>
       </c>
@@ -7892,19 +7919,19 @@
         <v>355</v>
       </c>
       <c r="GG9" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="GH9" s="5">
         <v>1</v>
       </c>
       <c r="GI9" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="GJ9" s="5">
         <v>1</v>
       </c>
       <c r="GK9" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="GL9" s="5">
         <v>1</v>
@@ -8048,7 +8075,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:240" ht="15.75" customHeight="1">
+    <row r="10" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>355</v>
       </c>
@@ -8770,7 +8797,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="1:240" ht="15.75" customHeight="1">
+    <row r="11" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>355</v>
       </c>
@@ -9492,7 +9519,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="12" spans="1:240" ht="15.75" customHeight="1">
+    <row r="12" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>355</v>
       </c>
@@ -9848,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="DO12" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="DP12" s="5">
         <v>1</v>
@@ -9860,7 +9887,7 @@
         <v>1</v>
       </c>
       <c r="DS12" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="DT12" s="5">
         <v>1</v>
@@ -10214,7 +10241,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:240" ht="15.75" customHeight="1">
+    <row r="13" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>355</v>
       </c>
@@ -10936,7 +10963,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="1:240" ht="15.75" customHeight="1">
+    <row r="14" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>355</v>
       </c>
@@ -11658,7 +11685,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="1:240" ht="15.75" customHeight="1">
+    <row r="15" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>355</v>
       </c>
@@ -12380,7 +12407,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:240" ht="15.75" customHeight="1">
+    <row r="16" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>355</v>
       </c>
@@ -13102,7 +13129,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="17" spans="1:240" ht="15.75" customHeight="1">
+    <row r="17" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>355</v>
       </c>
@@ -13824,7 +13851,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="18" spans="1:240" ht="15.75" customHeight="1">
+    <row r="18" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>355</v>
       </c>
@@ -14546,7 +14573,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="19" spans="1:240" ht="15.75" customHeight="1">
+    <row r="19" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>355</v>
       </c>
@@ -15268,7 +15295,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:240" ht="15.75" customHeight="1">
+    <row r="20" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>355</v>
       </c>
@@ -15990,7 +16017,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="21" spans="1:240" ht="15.75" customHeight="1">
+    <row r="21" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>355</v>
       </c>

--- a/Scheme/ВЕКТОР_ТАБЛИЦА.xlsx
+++ b/Scheme/ВЕКТОР_ТАБЛИЦА.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasukov\Desktop\Васюков 24\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B934FA5A-F248-4897-A7AC-B01C97CC4ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="124519" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1150,8 +1144,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1314,7 +1308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1361,9 +1355,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1371,6 +1362,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1587,65 +1582,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:IF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM4"/>
+    <sheetView tabSelected="1" topLeftCell="EJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="EQ12" sqref="EQ12:EQ13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="19" max="19" width="19.28515625" customWidth="1"/>
-    <col min="31" max="31" width="37.7109375" customWidth="1"/>
-    <col min="33" max="33" width="35.28515625" customWidth="1"/>
-    <col min="35" max="35" width="34.42578125" customWidth="1"/>
-    <col min="39" max="39" width="14.28515625" customWidth="1"/>
-    <col min="41" max="41" width="16.42578125" customWidth="1"/>
-    <col min="51" max="51" width="43.28515625" customWidth="1"/>
-    <col min="53" max="53" width="42.5703125" customWidth="1"/>
-    <col min="55" max="55" width="43.28515625" customWidth="1"/>
-    <col min="57" max="57" width="38.85546875" customWidth="1"/>
-    <col min="59" max="59" width="46.85546875" customWidth="1"/>
-    <col min="105" max="105" width="36.42578125" customWidth="1"/>
-    <col min="109" max="109" width="20.85546875" customWidth="1"/>
-    <col min="111" max="111" width="37.28515625" customWidth="1"/>
-    <col min="113" max="113" width="36.85546875" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" customWidth="1"/>
+    <col min="31" max="31" width="37.6640625" customWidth="1"/>
+    <col min="33" max="33" width="35.33203125" customWidth="1"/>
+    <col min="35" max="35" width="34.44140625" customWidth="1"/>
+    <col min="39" max="39" width="14.33203125" customWidth="1"/>
+    <col min="41" max="41" width="16.44140625" customWidth="1"/>
+    <col min="51" max="51" width="43.33203125" customWidth="1"/>
+    <col min="53" max="53" width="42.5546875" customWidth="1"/>
+    <col min="55" max="55" width="43.33203125" customWidth="1"/>
+    <col min="57" max="57" width="38.88671875" customWidth="1"/>
+    <col min="59" max="59" width="46.88671875" customWidth="1"/>
+    <col min="105" max="105" width="36.44140625" customWidth="1"/>
+    <col min="109" max="109" width="20.88671875" customWidth="1"/>
+    <col min="111" max="111" width="37.33203125" customWidth="1"/>
+    <col min="113" max="113" width="36.88671875" customWidth="1"/>
     <col min="115" max="115" width="37" customWidth="1"/>
-    <col min="117" max="117" width="37.140625" customWidth="1"/>
-    <col min="119" max="119" width="35.85546875" customWidth="1"/>
-    <col min="121" max="121" width="45.42578125" customWidth="1"/>
-    <col min="123" max="123" width="51.28515625" customWidth="1"/>
+    <col min="117" max="117" width="37.109375" customWidth="1"/>
+    <col min="119" max="119" width="35.88671875" customWidth="1"/>
+    <col min="121" max="121" width="45.44140625" customWidth="1"/>
+    <col min="123" max="123" width="51.33203125" customWidth="1"/>
     <col min="125" max="125" width="55" customWidth="1"/>
-    <col min="127" max="127" width="41.140625" customWidth="1"/>
-    <col min="135" max="135" width="43.42578125" customWidth="1"/>
-    <col min="137" max="137" width="49.28515625" customWidth="1"/>
-    <col min="141" max="141" width="61.42578125" customWidth="1"/>
+    <col min="127" max="127" width="41.109375" customWidth="1"/>
+    <col min="135" max="135" width="43.44140625" customWidth="1"/>
+    <col min="137" max="137" width="49.33203125" customWidth="1"/>
+    <col min="141" max="141" width="61.44140625" customWidth="1"/>
     <col min="143" max="143" width="47" customWidth="1"/>
-    <col min="145" max="145" width="47.5703125" customWidth="1"/>
-    <col min="147" max="147" width="17.7109375" customWidth="1"/>
+    <col min="145" max="145" width="47.5546875" customWidth="1"/>
+    <col min="147" max="147" width="17.6640625" customWidth="1"/>
     <col min="151" max="151" width="18" customWidth="1"/>
-    <col min="159" max="159" width="12.85546875" customWidth="1"/>
-    <col min="160" max="160" width="12.28515625" customWidth="1"/>
-    <col min="161" max="161" width="38.42578125" customWidth="1"/>
-    <col min="165" max="165" width="34.7109375" customWidth="1"/>
-    <col min="169" max="169" width="41.5703125" customWidth="1"/>
-    <col min="171" max="171" width="33.140625" customWidth="1"/>
-    <col min="173" max="173" width="45.5703125" customWidth="1"/>
-    <col min="175" max="175" width="25.5703125" customWidth="1"/>
-    <col min="179" max="179" width="29.5703125" customWidth="1"/>
+    <col min="159" max="159" width="12.88671875" customWidth="1"/>
+    <col min="160" max="160" width="12.33203125" customWidth="1"/>
+    <col min="161" max="161" width="38.44140625" customWidth="1"/>
+    <col min="165" max="165" width="34.6640625" customWidth="1"/>
+    <col min="169" max="169" width="41.5546875" customWidth="1"/>
+    <col min="171" max="171" width="33.109375" customWidth="1"/>
+    <col min="173" max="173" width="45.5546875" customWidth="1"/>
+    <col min="175" max="175" width="25.5546875" customWidth="1"/>
+    <col min="179" max="179" width="29.5546875" customWidth="1"/>
     <col min="187" max="187" width="33" customWidth="1"/>
-    <col min="189" max="189" width="34.28515625" customWidth="1"/>
-    <col min="213" max="213" width="42.28515625" customWidth="1"/>
-    <col min="214" max="214" width="13.140625" customWidth="1"/>
-    <col min="217" max="217" width="18.5703125" customWidth="1"/>
-    <col min="218" max="218" width="9.7109375" customWidth="1"/>
+    <col min="189" max="189" width="34.33203125" customWidth="1"/>
+    <col min="213" max="213" width="42.33203125" customWidth="1"/>
+    <col min="214" max="214" width="13.109375" customWidth="1"/>
+    <col min="217" max="217" width="18.5546875" customWidth="1"/>
+    <col min="218" max="218" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:240" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:240" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1811,19 +1806,19 @@
       <c r="BC1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="21" t="s">
+      <c r="BD1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="21" t="s">
+      <c r="BE1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="21" t="s">
+      <c r="BF1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="21" t="s">
+      <c r="BG1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="21" t="s">
+      <c r="BH1" s="20" t="s">
         <v>59</v>
       </c>
       <c r="BI1" s="11" t="s">
@@ -2162,19 +2157,19 @@
       <c r="FP1" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="FQ1" s="21" t="s">
+      <c r="FQ1" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="FR1" s="21" t="s">
+      <c r="FR1" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="FS1" s="21" t="s">
+      <c r="FS1" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="FT1" s="21" t="s">
+      <c r="FT1" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="FU1" s="21" t="s">
+      <c r="FU1" s="20" t="s">
         <v>176</v>
       </c>
       <c r="FV1" s="2" t="s">
@@ -2367,7 +2362,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:240" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>240</v>
       </c>
@@ -3089,7 +3084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:240" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>264</v>
       </c>
@@ -3811,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:240" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>299</v>
       </c>
@@ -4505,7 +4500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:240" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>311</v>
       </c>
@@ -4563,7 +4558,7 @@
       <c r="S5" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="21">
         <v>2</v>
       </c>
       <c r="U5" s="6" t="s">
@@ -4581,7 +4576,7 @@
       <c r="Y5" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="Z5" s="23">
+      <c r="Z5" s="22">
         <v>2</v>
       </c>
       <c r="AA5" s="19" t="s">
@@ -4593,7 +4588,7 @@
       <c r="AC5" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="AD5" s="23">
+      <c r="AD5" s="22">
         <v>2</v>
       </c>
       <c r="AE5" s="6" t="s">
@@ -5219,7 +5214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:240" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>329</v>
       </c>
@@ -5356,49 +5351,49 @@
         <v>328</v>
       </c>
       <c r="AT6" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AU6" s="3" t="s">
         <v>328</v>
       </c>
       <c r="AV6" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW6" s="3" t="s">
         <v>328</v>
       </c>
       <c r="AX6" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY6" s="3" t="s">
         <v>328</v>
       </c>
       <c r="AZ6" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA6" s="3" t="s">
         <v>328</v>
       </c>
       <c r="BB6" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC6" s="3" t="s">
         <v>328</v>
       </c>
       <c r="BD6" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BE6" s="3" t="s">
         <v>329</v>
       </c>
       <c r="BF6" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG6" s="3" t="s">
         <v>329</v>
       </c>
       <c r="BH6" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BI6" s="3" t="s">
         <v>311</v>
@@ -5556,21 +5551,39 @@
       <c r="DH6" s="4">
         <v>2</v>
       </c>
-      <c r="DI6" s="3"/>
-      <c r="DJ6" s="4"/>
-      <c r="DK6" s="3"/>
-      <c r="DL6" s="4"/>
-      <c r="DM6" s="3"/>
-      <c r="DN6" s="4"/>
-      <c r="DO6" s="3"/>
-      <c r="DP6" s="4"/>
+      <c r="DI6" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="DJ6" s="4">
+        <v>1</v>
+      </c>
+      <c r="DK6" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="DL6" s="4">
+        <v>1</v>
+      </c>
+      <c r="DM6" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="DN6" s="4">
+        <v>1</v>
+      </c>
+      <c r="DO6" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="DP6" s="4">
+        <v>1</v>
+      </c>
       <c r="DQ6" s="3" t="s">
         <v>317</v>
       </c>
       <c r="DR6" s="4">
         <v>2</v>
       </c>
-      <c r="DS6" s="3"/>
+      <c r="DS6" s="3" t="s">
+        <v>316</v>
+      </c>
       <c r="DT6" s="4"/>
       <c r="DU6" s="3" t="s">
         <v>323</v>
@@ -5582,13 +5595,13 @@
         <v>328</v>
       </c>
       <c r="DX6" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="DY6" s="3" t="s">
         <v>328</v>
       </c>
       <c r="DZ6" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="EA6" s="6" t="s">
         <v>306</v>
@@ -5626,10 +5639,10 @@
       <c r="EL6" s="4">
         <v>1</v>
       </c>
-      <c r="EM6" s="19"/>
-      <c r="EN6" s="20"/>
-      <c r="EO6" s="19"/>
-      <c r="EP6" s="20"/>
+      <c r="EM6" s="23"/>
+      <c r="EN6" s="24"/>
+      <c r="EO6" s="23"/>
+      <c r="EP6" s="24"/>
       <c r="EQ6" s="3" t="s">
         <v>311</v>
       </c>
@@ -5913,7 +5926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:240" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>337</v>
       </c>
@@ -5972,37 +5985,37 @@
         <v>329</v>
       </c>
       <c r="T7" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>329</v>
       </c>
       <c r="V7" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>329</v>
       </c>
       <c r="X7" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y7" s="3" t="s">
         <v>329</v>
       </c>
       <c r="Z7" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA7" s="3" t="s">
         <v>329</v>
       </c>
       <c r="AB7" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>329</v>
       </c>
       <c r="AD7" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE7" s="3" t="s">
         <v>315</v>
@@ -6038,13 +6051,13 @@
         <v>328</v>
       </c>
       <c r="AP7" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AQ7" s="3" t="s">
         <v>328</v>
       </c>
       <c r="AR7" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AS7" s="3" t="s">
         <v>333</v>
@@ -6248,36 +6261,40 @@
         <v>329</v>
       </c>
       <c r="DH7" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="DI7" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="DJ7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DK7" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="DL7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DM7" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="DN7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DO7" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="DP7" s="4">
-        <v>1</v>
-      </c>
-      <c r="DQ7" s="3"/>
-      <c r="DR7" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="DQ7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="DR7" s="4">
+        <v>1</v>
+      </c>
       <c r="DS7" s="3" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="DT7" s="4">
         <v>1</v>
@@ -6304,13 +6321,13 @@
         <v>328</v>
       </c>
       <c r="EB7" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="EC7" s="3" t="s">
         <v>328</v>
       </c>
       <c r="ED7" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="EE7" s="3" t="s">
         <v>328</v>
@@ -6631,7 +6648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:240" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>353</v>
       </c>
@@ -6726,31 +6743,31 @@
         <v>329</v>
       </c>
       <c r="AF8" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG8" s="3" t="s">
         <v>329</v>
       </c>
       <c r="AH8" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AI8" s="3" t="s">
         <v>329</v>
       </c>
       <c r="AJ8" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK8" s="3" t="s">
         <v>331</v>
       </c>
       <c r="AL8" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AM8" s="3" t="s">
         <v>331</v>
       </c>
       <c r="AN8" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AO8" s="3" t="s">
         <v>332</v>
@@ -6948,19 +6965,19 @@
         <v>329</v>
       </c>
       <c r="DB8" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="DC8" s="3" t="s">
         <v>329</v>
       </c>
       <c r="DD8" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="DE8" s="3" t="s">
         <v>329</v>
       </c>
       <c r="DF8" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="DG8" s="3" t="s">
         <v>339</v>
@@ -6969,37 +6986,37 @@
         <v>1</v>
       </c>
       <c r="DI8" s="3" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="DJ8" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="DK8" s="3" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="DL8" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="DM8" s="3" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="DN8" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="DO8" s="3" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="DP8" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="DQ8" s="3" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="DR8" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="DS8" s="3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="DT8" s="4">
         <v>2</v>
@@ -7008,7 +7025,7 @@
         <v>331</v>
       </c>
       <c r="DV8" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="DW8" s="3" t="s">
         <v>346</v>
@@ -7353,7 +7370,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:240" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>355</v>
       </c>
@@ -7691,40 +7708,40 @@
         <v>1</v>
       </c>
       <c r="DI9" s="3" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="DJ9" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DK9" s="3" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="DL9" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DM9" s="3" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="DN9" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DO9" s="3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="DP9" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DQ9" s="3" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="DR9" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DS9" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="DT9" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="DU9" s="3" t="s">
         <v>345</v>
@@ -8075,7 +8092,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:240" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>355</v>
       </c>
@@ -8413,37 +8430,37 @@
         <v>1</v>
       </c>
       <c r="DI10" s="3" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="DJ10" s="4">
         <v>1</v>
       </c>
       <c r="DK10" s="3" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="DL10" s="4">
         <v>1</v>
       </c>
       <c r="DM10" s="3" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="DN10" s="4">
         <v>1</v>
       </c>
       <c r="DO10" s="3" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="DP10" s="4">
         <v>1</v>
       </c>
       <c r="DQ10" s="3" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="DR10" s="4">
         <v>1</v>
       </c>
       <c r="DS10" s="3" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="DT10" s="4">
         <v>1</v>
@@ -8797,7 +8814,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:240" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>355</v>
       </c>
@@ -9134,38 +9151,38 @@
       <c r="DH11" s="5">
         <v>1</v>
       </c>
-      <c r="DI11" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="DJ11" s="4">
-        <v>1</v>
-      </c>
-      <c r="DK11" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="DL11" s="4">
-        <v>1</v>
-      </c>
-      <c r="DM11" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="DN11" s="4">
-        <v>1</v>
-      </c>
-      <c r="DO11" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="DP11" s="4">
-        <v>1</v>
-      </c>
-      <c r="DQ11" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="DR11" s="4">
-        <v>1</v>
-      </c>
-      <c r="DS11" s="3" t="s">
-        <v>354</v>
+      <c r="DI11" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="DJ11" s="5">
+        <v>1</v>
+      </c>
+      <c r="DK11" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="DL11" s="5">
+        <v>1</v>
+      </c>
+      <c r="DM11" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="DN11" s="5">
+        <v>1</v>
+      </c>
+      <c r="DO11" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="DP11" s="5">
+        <v>1</v>
+      </c>
+      <c r="DQ11" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="DR11" s="5">
+        <v>1</v>
+      </c>
+      <c r="DS11" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="DT11" s="4">
         <v>1</v>
@@ -9221,9 +9238,7 @@
       <c r="EK11" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="EL11" s="5">
-        <v>1</v>
-      </c>
+      <c r="EL11" s="24"/>
       <c r="EM11" s="6" t="s">
         <v>350</v>
       </c>
@@ -9519,7 +9534,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="12" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:240" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>355</v>
       </c>
@@ -9857,37 +9872,37 @@
         <v>1</v>
       </c>
       <c r="DI12" s="6" t="s">
-        <v>249</v>
+        <v>349</v>
       </c>
       <c r="DJ12" s="5">
         <v>1</v>
       </c>
       <c r="DK12" s="6" t="s">
-        <v>240</v>
+        <v>356</v>
       </c>
       <c r="DL12" s="5">
         <v>1</v>
       </c>
       <c r="DM12" s="6" t="s">
-        <v>241</v>
+        <v>351</v>
       </c>
       <c r="DN12" s="5">
         <v>1</v>
       </c>
       <c r="DO12" s="6" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="DP12" s="5">
         <v>1</v>
       </c>
       <c r="DQ12" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="DR12" s="5">
         <v>1</v>
       </c>
       <c r="DS12" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="DT12" s="5">
         <v>1</v>
@@ -10241,7 +10256,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:240" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>355</v>
       </c>
@@ -10578,38 +10593,38 @@
       <c r="DH13" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="DI13" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="DJ13" s="5">
-        <v>1</v>
-      </c>
-      <c r="DK13" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="DL13" s="5">
-        <v>1</v>
-      </c>
-      <c r="DM13" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="DN13" s="5">
-        <v>1</v>
-      </c>
-      <c r="DO13" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="DP13" s="5">
-        <v>1</v>
-      </c>
-      <c r="DQ13" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="DR13" s="5">
-        <v>1</v>
-      </c>
-      <c r="DS13" s="6" t="s">
-        <v>361</v>
+      <c r="DI13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="DJ13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="DK13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="DL13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="DM13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="DN13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="DO13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="DP13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="DQ13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="DR13" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="DS13" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="DT13" s="5">
         <v>1</v>
@@ -10963,7 +10978,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:240" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>355</v>
       </c>
@@ -11685,7 +11700,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:240" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>355</v>
       </c>
@@ -12407,7 +12422,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:240" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>355</v>
       </c>
@@ -13129,7 +13144,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="17" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:240" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>355</v>
       </c>
@@ -13851,7 +13866,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="18" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:240" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>355</v>
       </c>
@@ -14573,7 +14588,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="19" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:240" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>355</v>
       </c>
@@ -15295,7 +15310,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:240" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>355</v>
       </c>
@@ -16017,7 +16032,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="21" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:240" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>355</v>
       </c>
@@ -16352,39 +16367,6 @@
         <v>355</v>
       </c>
       <c r="DH21" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="DI21" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="DJ21" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="DK21" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="DL21" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="DM21" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="DN21" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="DO21" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="DP21" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="DQ21" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="DR21" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="DS21" s="3" t="s">
         <v>355</v>
       </c>
       <c r="DT21" s="3" t="s">

--- a/Scheme/ВЕКТОР_ТАБЛИЦА.xlsx
+++ b/Scheme/ВЕКТОР_ТАБЛИЦА.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasukov\Desktop\Васюков 24\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F81DA88-8AB3-4C07-AE6B-EBAD409F9288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1144,8 +1139,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1582,65 +1577,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:IF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="EQ12" sqref="EQ12:EQ13"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="EE7" sqref="EE7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="19" max="19" width="19.33203125" customWidth="1"/>
-    <col min="31" max="31" width="37.6640625" customWidth="1"/>
-    <col min="33" max="33" width="35.33203125" customWidth="1"/>
-    <col min="35" max="35" width="34.44140625" customWidth="1"/>
-    <col min="39" max="39" width="14.33203125" customWidth="1"/>
-    <col min="41" max="41" width="16.44140625" customWidth="1"/>
-    <col min="51" max="51" width="43.33203125" customWidth="1"/>
-    <col min="53" max="53" width="42.5546875" customWidth="1"/>
-    <col min="55" max="55" width="43.33203125" customWidth="1"/>
-    <col min="57" max="57" width="38.88671875" customWidth="1"/>
-    <col min="59" max="59" width="46.88671875" customWidth="1"/>
-    <col min="105" max="105" width="36.44140625" customWidth="1"/>
-    <col min="109" max="109" width="20.88671875" customWidth="1"/>
-    <col min="111" max="111" width="37.33203125" customWidth="1"/>
-    <col min="113" max="113" width="36.88671875" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" customWidth="1"/>
+    <col min="31" max="31" width="37.7109375" customWidth="1"/>
+    <col min="33" max="33" width="35.28515625" customWidth="1"/>
+    <col min="35" max="35" width="34.42578125" customWidth="1"/>
+    <col min="39" max="39" width="14.28515625" customWidth="1"/>
+    <col min="41" max="41" width="16.42578125" customWidth="1"/>
+    <col min="51" max="51" width="43.28515625" customWidth="1"/>
+    <col min="53" max="53" width="42.5703125" customWidth="1"/>
+    <col min="55" max="55" width="43.28515625" customWidth="1"/>
+    <col min="57" max="57" width="38.85546875" customWidth="1"/>
+    <col min="59" max="59" width="46.85546875" customWidth="1"/>
+    <col min="105" max="105" width="36.42578125" customWidth="1"/>
+    <col min="109" max="109" width="20.85546875" customWidth="1"/>
+    <col min="111" max="111" width="37.28515625" customWidth="1"/>
+    <col min="113" max="113" width="36.85546875" customWidth="1"/>
     <col min="115" max="115" width="37" customWidth="1"/>
-    <col min="117" max="117" width="37.109375" customWidth="1"/>
-    <col min="119" max="119" width="35.88671875" customWidth="1"/>
-    <col min="121" max="121" width="45.44140625" customWidth="1"/>
-    <col min="123" max="123" width="51.33203125" customWidth="1"/>
+    <col min="117" max="117" width="37.140625" customWidth="1"/>
+    <col min="119" max="119" width="35.85546875" customWidth="1"/>
+    <col min="121" max="121" width="45.42578125" customWidth="1"/>
+    <col min="123" max="123" width="51.28515625" customWidth="1"/>
     <col min="125" max="125" width="55" customWidth="1"/>
-    <col min="127" max="127" width="41.109375" customWidth="1"/>
-    <col min="135" max="135" width="43.44140625" customWidth="1"/>
-    <col min="137" max="137" width="49.33203125" customWidth="1"/>
-    <col min="141" max="141" width="61.44140625" customWidth="1"/>
+    <col min="127" max="127" width="41.140625" customWidth="1"/>
+    <col min="135" max="135" width="43.42578125" customWidth="1"/>
+    <col min="137" max="137" width="49.28515625" customWidth="1"/>
+    <col min="141" max="141" width="61.42578125" customWidth="1"/>
     <col min="143" max="143" width="47" customWidth="1"/>
-    <col min="145" max="145" width="47.5546875" customWidth="1"/>
-    <col min="147" max="147" width="17.6640625" customWidth="1"/>
+    <col min="145" max="145" width="47.5703125" customWidth="1"/>
+    <col min="147" max="147" width="17.7109375" customWidth="1"/>
     <col min="151" max="151" width="18" customWidth="1"/>
-    <col min="159" max="159" width="12.88671875" customWidth="1"/>
-    <col min="160" max="160" width="12.33203125" customWidth="1"/>
-    <col min="161" max="161" width="38.44140625" customWidth="1"/>
-    <col min="165" max="165" width="34.6640625" customWidth="1"/>
-    <col min="169" max="169" width="41.5546875" customWidth="1"/>
-    <col min="171" max="171" width="33.109375" customWidth="1"/>
-    <col min="173" max="173" width="45.5546875" customWidth="1"/>
-    <col min="175" max="175" width="25.5546875" customWidth="1"/>
-    <col min="179" max="179" width="29.5546875" customWidth="1"/>
+    <col min="159" max="159" width="12.85546875" customWidth="1"/>
+    <col min="160" max="160" width="12.28515625" customWidth="1"/>
+    <col min="161" max="161" width="38.42578125" customWidth="1"/>
+    <col min="165" max="165" width="34.7109375" customWidth="1"/>
+    <col min="169" max="169" width="41.5703125" customWidth="1"/>
+    <col min="171" max="171" width="33.140625" customWidth="1"/>
+    <col min="173" max="173" width="45.5703125" customWidth="1"/>
+    <col min="175" max="175" width="25.5703125" customWidth="1"/>
+    <col min="179" max="179" width="29.5703125" customWidth="1"/>
     <col min="187" max="187" width="33" customWidth="1"/>
-    <col min="189" max="189" width="34.33203125" customWidth="1"/>
-    <col min="213" max="213" width="42.33203125" customWidth="1"/>
-    <col min="214" max="214" width="13.109375" customWidth="1"/>
-    <col min="217" max="217" width="18.5546875" customWidth="1"/>
-    <col min="218" max="218" width="9.6640625" customWidth="1"/>
+    <col min="189" max="189" width="34.28515625" customWidth="1"/>
+    <col min="213" max="213" width="42.28515625" customWidth="1"/>
+    <col min="214" max="214" width="13.140625" customWidth="1"/>
+    <col min="217" max="217" width="18.5703125" customWidth="1"/>
+    <col min="218" max="218" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:240" ht="14.4">
+    <row r="1" spans="1:240" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2362,7 +2357,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:240" ht="15.75" customHeight="1">
+    <row r="2" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>240</v>
       </c>
@@ -3084,7 +3079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:240" ht="15.75" customHeight="1">
+    <row r="3" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>264</v>
       </c>
@@ -3806,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:240" ht="15.75" customHeight="1">
+    <row r="4" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>299</v>
       </c>
@@ -4500,7 +4495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:240" ht="15.75" customHeight="1">
+    <row r="5" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>311</v>
       </c>
@@ -5214,7 +5209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:240" ht="15.75" customHeight="1">
+    <row r="6" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>329</v>
       </c>
@@ -5351,49 +5346,49 @@
         <v>328</v>
       </c>
       <c r="AT6" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AU6" s="3" t="s">
         <v>328</v>
       </c>
       <c r="AV6" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW6" s="3" t="s">
         <v>328</v>
       </c>
       <c r="AX6" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY6" s="3" t="s">
         <v>328</v>
       </c>
       <c r="AZ6" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BA6" s="3" t="s">
         <v>328</v>
       </c>
       <c r="BB6" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC6" s="3" t="s">
         <v>328</v>
       </c>
       <c r="BD6" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BE6" s="3" t="s">
         <v>329</v>
       </c>
       <c r="BF6" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG6" s="3" t="s">
         <v>329</v>
       </c>
       <c r="BH6" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BI6" s="3" t="s">
         <v>311</v>
@@ -5595,13 +5590,13 @@
         <v>328</v>
       </c>
       <c r="DX6" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="DY6" s="3" t="s">
         <v>328</v>
       </c>
       <c r="DZ6" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="EA6" s="6" t="s">
         <v>306</v>
@@ -5926,7 +5921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:240" ht="15.75" customHeight="1">
+    <row r="7" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>337</v>
       </c>
@@ -5985,37 +5980,37 @@
         <v>329</v>
       </c>
       <c r="T7" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>329</v>
       </c>
       <c r="V7" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>329</v>
       </c>
       <c r="X7" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y7" s="3" t="s">
         <v>329</v>
       </c>
       <c r="Z7" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AA7" s="3" t="s">
         <v>329</v>
       </c>
       <c r="AB7" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>329</v>
       </c>
       <c r="AD7" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE7" s="3" t="s">
         <v>315</v>
@@ -6051,13 +6046,13 @@
         <v>328</v>
       </c>
       <c r="AP7" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AQ7" s="3" t="s">
         <v>328</v>
       </c>
       <c r="AR7" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AS7" s="3" t="s">
         <v>333</v>
@@ -6261,7 +6256,7 @@
         <v>329</v>
       </c>
       <c r="DH7" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="DI7" s="3" t="s">
         <v>313</v>
@@ -6321,13 +6316,13 @@
         <v>328</v>
       </c>
       <c r="EB7" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="EC7" s="3" t="s">
         <v>328</v>
       </c>
       <c r="ED7" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="EE7" s="3" t="s">
         <v>328</v>
@@ -6648,7 +6643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:240" ht="15.75" customHeight="1">
+    <row r="8" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>353</v>
       </c>
@@ -6743,31 +6738,31 @@
         <v>329</v>
       </c>
       <c r="AF8" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AG8" s="3" t="s">
         <v>329</v>
       </c>
       <c r="AH8" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AI8" s="3" t="s">
         <v>329</v>
       </c>
       <c r="AJ8" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AK8" s="3" t="s">
         <v>331</v>
       </c>
       <c r="AL8" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AM8" s="3" t="s">
         <v>331</v>
       </c>
       <c r="AN8" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AO8" s="3" t="s">
         <v>332</v>
@@ -6965,19 +6960,19 @@
         <v>329</v>
       </c>
       <c r="DB8" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="DC8" s="3" t="s">
         <v>329</v>
       </c>
       <c r="DD8" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="DE8" s="3" t="s">
         <v>329</v>
       </c>
       <c r="DF8" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="DG8" s="3" t="s">
         <v>339</v>
@@ -6989,43 +6984,43 @@
         <v>329</v>
       </c>
       <c r="DJ8" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="DK8" s="3" t="s">
         <v>329</v>
       </c>
       <c r="DL8" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="DM8" s="3" t="s">
         <v>329</v>
       </c>
       <c r="DN8" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="DO8" s="3" t="s">
         <v>329</v>
       </c>
       <c r="DP8" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="DQ8" s="3" t="s">
         <v>329</v>
       </c>
       <c r="DR8" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="DS8" s="3" t="s">
         <v>331</v>
       </c>
       <c r="DT8" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DU8" s="3" t="s">
         <v>331</v>
       </c>
       <c r="DV8" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="DW8" s="3" t="s">
         <v>346</v>
@@ -7370,7 +7365,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:240" ht="15.75" customHeight="1">
+    <row r="9" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>355</v>
       </c>
@@ -8092,7 +8087,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:240" ht="15.75" customHeight="1">
+    <row r="10" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>355</v>
       </c>
@@ -8814,7 +8809,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="1:240" ht="15.75" customHeight="1">
+    <row r="11" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>355</v>
       </c>
@@ -9534,7 +9529,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="12" spans="1:240" ht="15.75" customHeight="1">
+    <row r="12" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>355</v>
       </c>
@@ -10256,7 +10251,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:240" ht="15.75" customHeight="1">
+    <row r="13" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>355</v>
       </c>
@@ -10978,7 +10973,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="1:240" ht="15.75" customHeight="1">
+    <row r="14" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>355</v>
       </c>
@@ -11700,7 +11695,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="1:240" ht="15.75" customHeight="1">
+    <row r="15" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>355</v>
       </c>
@@ -12422,7 +12417,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:240" ht="15.75" customHeight="1">
+    <row r="16" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>355</v>
       </c>
@@ -13144,7 +13139,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="17" spans="1:240" ht="15.75" customHeight="1">
+    <row r="17" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>355</v>
       </c>
@@ -13866,7 +13861,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="18" spans="1:240" ht="15.75" customHeight="1">
+    <row r="18" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>355</v>
       </c>
@@ -14588,7 +14583,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="19" spans="1:240" ht="15.75" customHeight="1">
+    <row r="19" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>355</v>
       </c>
@@ -15310,7 +15305,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="20" spans="1:240" ht="15.75" customHeight="1">
+    <row r="20" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>355</v>
       </c>
@@ -16032,7 +16027,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="21" spans="1:240" ht="15.75" customHeight="1">
+    <row r="21" spans="1:240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>355</v>
       </c>
